--- a/data/trans_orig/P33B_R3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R3-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>149313</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>132234</v>
+        <v>131305</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>169979</v>
+        <v>169232</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2580899424320769</v>
+        <v>0.2580899424320768</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2285701821460238</v>
+        <v>0.2269634319392431</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2938120521395573</v>
+        <v>0.2925217146308821</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>540</v>
@@ -762,19 +762,19 @@
         <v>312206</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>289905</v>
+        <v>291159</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>334235</v>
+        <v>334388</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3801299462771483</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3529767671163502</v>
+        <v>0.3545034192598109</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4069515380701565</v>
+        <v>0.4071370918919672</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>738</v>
@@ -783,19 +783,19 @@
         <v>461519</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>434189</v>
+        <v>431515</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>496056</v>
+        <v>489385</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3296931089707497</v>
+        <v>0.3296931089707496</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3101696814859211</v>
+        <v>0.3082594845231096</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3543647147012504</v>
+        <v>0.3495992440898114</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>429216</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>408550</v>
+        <v>409297</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>446295</v>
+        <v>447224</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7419100575679233</v>
+        <v>0.7419100575679232</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7061879478604426</v>
+        <v>0.7074782853691179</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7714298178539762</v>
+        <v>0.7730365680607569</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>886</v>
@@ -833,19 +833,19 @@
         <v>509109</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>487080</v>
+        <v>486927</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>531410</v>
+        <v>530156</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6198700537228518</v>
+        <v>0.6198700537228516</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5930484619298434</v>
+        <v>0.5928629081080329</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6470232328836497</v>
+        <v>0.6454965807401892</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1379</v>
@@ -854,19 +854,19 @@
         <v>938326</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>903789</v>
+        <v>910460</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>965656</v>
+        <v>968330</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6703068910292505</v>
+        <v>0.6703068910292502</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6456352852987496</v>
+        <v>0.6504007559101884</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6898303185140789</v>
+        <v>0.6917405154768904</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>302543</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>268837</v>
+        <v>272599</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>339429</v>
+        <v>335307</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1357009629178562</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1205824613012969</v>
+        <v>0.1222699094279433</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1522455135483318</v>
+        <v>0.1503964954215501</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>585</v>
@@ -979,19 +979,19 @@
         <v>398440</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>367454</v>
+        <v>364679</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>432244</v>
+        <v>432035</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1834950598449767</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1692249390795868</v>
+        <v>0.1679469640451774</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1990630905458288</v>
+        <v>0.1989666909057305</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>897</v>
@@ -1000,19 +1000,19 @@
         <v>700983</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>654412</v>
+        <v>657862</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>749203</v>
+        <v>753358</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1592825657971548</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1487004741245623</v>
+        <v>0.1494842588395379</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1702395325047825</v>
+        <v>0.1711836737252235</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1926942</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1890056</v>
+        <v>1894178</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1960648</v>
+        <v>1956886</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8642990370821438</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8477544864516683</v>
+        <v>0.8496035045784499</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.879417538698703</v>
+        <v>0.8777300905720565</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2336</v>
@@ -1050,19 +1050,19 @@
         <v>1772952</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1739148</v>
+        <v>1739357</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1803938</v>
+        <v>1806713</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8165049401550233</v>
+        <v>0.8165049401550232</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8009369094541714</v>
+        <v>0.8010333090942694</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.830775060920413</v>
+        <v>0.8320530359548229</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4015</v>
@@ -1071,19 +1071,19 @@
         <v>3699894</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3651674</v>
+        <v>3647519</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3746465</v>
+        <v>3743015</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8407174342028451</v>
+        <v>0.8407174342028453</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8297604674952183</v>
+        <v>0.8288163262747764</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8512995258754377</v>
+        <v>0.8505157411604622</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>92719</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>73584</v>
+        <v>73574</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>114537</v>
+        <v>115273</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1304806002160837</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1035522246803299</v>
+        <v>0.1035374981570491</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1611843586842484</v>
+        <v>0.1622200795554273</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>153</v>
@@ -1196,19 +1196,19 @@
         <v>109019</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>93437</v>
+        <v>92280</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>125157</v>
+        <v>128792</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.148349369134197</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1271465694443683</v>
+        <v>0.1255719664969527</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1703106553168829</v>
+        <v>0.1752569650976244</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>237</v>
@@ -1217,19 +1217,19 @@
         <v>201738</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>177608</v>
+        <v>179654</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>230829</v>
+        <v>231907</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1395650454508139</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1228712603670978</v>
+        <v>0.1242867319434477</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1596904293703327</v>
+        <v>0.1604363249074054</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>617880</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>596062</v>
+        <v>595326</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>637015</v>
+        <v>637025</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8695193997839165</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8388156413157517</v>
+        <v>0.8377799204445728</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8964477753196703</v>
+        <v>0.896462501842951</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>851</v>
@@ -1267,19 +1267,19 @@
         <v>625858</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>609720</v>
+        <v>606085</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>641440</v>
+        <v>642597</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8516506308658029</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8296893446831173</v>
+        <v>0.8247430349023755</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8728534305556319</v>
+        <v>0.8744280335030471</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1447</v>
@@ -1288,19 +1288,19 @@
         <v>1243739</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1214648</v>
+        <v>1213570</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1267869</v>
+        <v>1265823</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8604349545491861</v>
+        <v>0.8604349545491862</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8403095706296667</v>
+        <v>0.8395636750925948</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8771287396329021</v>
+        <v>0.8757132680565517</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>544575</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>499717</v>
+        <v>500922</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>592325</v>
+        <v>586004</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.154769850381054</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1420209259984561</v>
+        <v>0.1423634127658117</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1683404859618956</v>
+        <v>0.1665439211803064</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1278</v>
@@ -1413,19 +1413,19 @@
         <v>819665</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>774173</v>
+        <v>780963</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>860585</v>
+        <v>861576</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2198916694030258</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2076875075304</v>
+        <v>0.2095090102873598</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2308692765311087</v>
+        <v>0.2311350603785312</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1872</v>
@@ -1434,19 +1434,19 @@
         <v>1364240</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1301572</v>
+        <v>1306063</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1426084</v>
+        <v>1428540</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1882697761338227</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1796213622302725</v>
+        <v>0.1802412042943918</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1968044508478424</v>
+        <v>0.197143381623966</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>2974038</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2926288</v>
+        <v>2932609</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3018896</v>
+        <v>3017691</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8452301496189462</v>
+        <v>0.845230149618946</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8316595140381046</v>
+        <v>0.8334560788196937</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8579790740015442</v>
+        <v>0.8576365872341886</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4073</v>
@@ -1484,19 +1484,19 @@
         <v>2907920</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2867000</v>
+        <v>2866009</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2953412</v>
+        <v>2946622</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7801083305969742</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7691307234688912</v>
+        <v>0.7688649396214688</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7923124924696</v>
+        <v>0.7904909897126403</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6841</v>
@@ -1505,19 +1505,19 @@
         <v>5881958</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5820114</v>
+        <v>5817658</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5944626</v>
+        <v>5940135</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8117302238661772</v>
+        <v>0.8117302238661773</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8031955491521575</v>
+        <v>0.8028566183760339</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8203786377697273</v>
+        <v>0.8197587957056082</v>
       </c>
     </row>
     <row r="15">
